--- a/summary/Summary_ResNet&DenseNet.xlsx
+++ b/summary/Summary_ResNet&DenseNet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiuyi/Desktop/OUCopula/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9839A8AE-951F-8143-B5AD-DD5A54124196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67AD558-F5BA-594C-8FCD-7B7DE02B680B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5620" yWindow="-26200" windowWidth="37640" windowHeight="23400" xr2:uid="{A8FB3350-3FE6-43A0-B246-800265C963E8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{A8FB3350-3FE6-43A0-B246-800265C963E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="247">
   <si>
     <t>OS SE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -798,6 +798,14 @@
   </si>
   <si>
     <t>Backbone: DenseNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.267 (-7.43%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.439 (-6.12%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,7 +1141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1351,6 +1359,18 @@
     <xf numFmtId="176" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1398,19 +1418,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1734,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164A4AA8-1405-4B0B-83C3-9EE197CB23F3}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="137" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1754,36 +1761,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="42"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="42"/>
@@ -2012,21 +2019,21 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="42"/>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75" t="s">
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76" t="s">
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="42"/>
@@ -2255,21 +2262,21 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="42"/>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74" t="s">
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="42"/>
@@ -2473,7 +2480,7 @@
         <v>229</v>
       </c>
       <c r="D25" s="66" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="E25" s="65">
         <f>AVERAGE(E20:E24)</f>
@@ -2483,7 +2490,7 @@
         <v>231</v>
       </c>
       <c r="G25" s="66" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="H25" s="67">
         <f>AVERAGE(H20:H24)</f>
@@ -2496,49 +2503,49 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="92" customFormat="1">
-      <c r="A26" s="89"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
+    <row r="26" spans="1:10">
+      <c r="A26" s="73"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
     </row>
     <row r="27" spans="1:10" ht="28">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="42"/>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75" t="s">
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76" t="s">
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="42"/>
@@ -2767,21 +2774,21 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="42"/>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75" t="s">
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="76" t="s">
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="42"/>
@@ -3010,21 +3017,21 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="42"/>
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73" t="s">
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="74" t="s">
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="42"/>
@@ -3253,6 +3260,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="E18:G18"/>
@@ -3264,15 +3280,6 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H36:J36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3319,21 +3326,21 @@
     <row r="6" spans="2:12">
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="77" t="s">
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80" t="s">
+      <c r="H6" s="82"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="81"/>
-      <c r="L6" s="82"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="36"/>
@@ -3570,21 +3577,21 @@
     <row r="14" spans="2:12">
       <c r="B14" s="36"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="77" t="s">
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80" t="s">
+      <c r="H14" s="82"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="36"/>
@@ -3821,21 +3828,21 @@
     <row r="22" spans="2:12">
       <c r="B22" s="36"/>
       <c r="C22" s="37"/>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="84"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="83" t="s">
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="84"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="86" t="s">
+      <c r="H22" s="88"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="87"/>
-      <c r="L22" s="88"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="92"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="36"/>
@@ -4087,21 +4094,21 @@
     <row r="33" spans="2:12">
       <c r="B33" s="36"/>
       <c r="C33" s="37"/>
-      <c r="D33" s="77" t="s">
+      <c r="D33" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="78"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="77" t="s">
+      <c r="E33" s="82"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="H33" s="78"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="80" t="s">
+      <c r="H33" s="82"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="81"/>
-      <c r="L33" s="82"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="86"/>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="36"/>
@@ -4338,21 +4345,21 @@
     <row r="41" spans="2:12">
       <c r="B41" s="36"/>
       <c r="C41" s="37"/>
-      <c r="D41" s="77" t="s">
+      <c r="D41" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="78"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="77" t="s">
+      <c r="E41" s="82"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="78"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="80" t="s">
+      <c r="H41" s="82"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="81"/>
-      <c r="L41" s="82"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="86"/>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="36"/>
@@ -4589,21 +4596,21 @@
     <row r="49" spans="2:12">
       <c r="B49" s="36"/>
       <c r="C49" s="37"/>
-      <c r="D49" s="83" t="s">
+      <c r="D49" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="84"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="83" t="s">
+      <c r="E49" s="88"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="84"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="86" t="s">
+      <c r="H49" s="88"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="87"/>
-      <c r="L49" s="88"/>
+      <c r="K49" s="91"/>
+      <c r="L49" s="92"/>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" s="36"/>
@@ -4839,24 +4846,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="J41:L41"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="G49:I49"/>
     <mergeCell ref="J49:L49"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
